--- a/FSDAtestHPC/test-results/multivariate-clustering_test.xlsx
+++ b/FSDAtestHPC/test-results/multivariate-clustering_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="60">
   <si>
     <t>FileName</t>
   </si>
@@ -304,6 +304,194 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>close all
+% Specify k cluster in v dimensions with n obs
+k = 10;
+v = 2;
+n = 5000;
+% Generate homogeneous and spherical clusters
+rng(100, 'twister');
+out = MixSim(k, v, 'sph', true, 'hom', true, 'int', [0 10], 'Display', 'off', 'BarOmega', 0.05, 'Display','off');
+% Simulating data
+[X, id] = simdataset(n, out.Pi, out.Mu, out.S);
+% Plotting data
+gscatter(X(:,1), X(:,2), id);
+str = sprintf('Simulated data with %d groups in %d dimensions and %d units', k, v, n);
+title(str,'Interpreter','Latex');
+% merging algorithm based on hierarchical clustering
+g = 3;
+DEMP = dempk(X, k*5, g, 'plots', 'contourf');
+% merging algorithm based on the threshold value omega star
+g = 0.01;
+DEMP2 = dempk(X, k*5, g, 'plots', 'contour');
+cascade;</t>
+  </si>
+  <si>
+    <t>close all
+rng('default')
+rng(10);
+n1=100;
+n2=100;
+v=3;
+Y1=rand(n1,v);
+Y2=rand(n2,v)+1;
+Y=[Y1;Y2];
+group=[ones(n1,1);2*ones(n2,1)];
+spmplot(Y,group);
+title('Two simulated groups')
+Y=[Y1;Y2];
+close all
+% parfor of Parallel Computing Toolbox is used (if present in current computer)
+% and pool is cleaned after the execution of the random starts
+% The number of workers which is used is the one specified
+% in the local/current profile
+[out]=FSMmmdrs(Y,'nsimul',100,'init',10,'plots',1);
+ylim([2 5])
+disp('The two peaks in the trajectories of minimum Mahalanobis distance (mmd).')
+disp('clearly show the presence of two groups.')
+disp('The decrease after the peak in the trajectories of mmd is due to the masking effect.')</t>
+  </si>
+  <si>
+    <t>v=2;
+% 3 groups
+k=3;
+models={'VVE','EVE','VVV','EVV','VEE','EEE','VEV','EEV','VVI',...
+'EVI','VEI','EEI','VII','EII'};
+% Specify the colors for the ellipses
+col='rbk';
+% if withseed is true the same plot is always obtained otherwise every time
+% a different plot is obtained
+withseed=true;
+close all
+% These numbers are those which better exemplify the caractheristics of the
+% 14 specifications.
+seeds=[100 20 12 209 51 6 76 8 9 22 11 12 130 14];
+for j=1:length(models)
+if withseed==true
+rng(seeds(j))
+end
+modeltype=models{j};
+S=genSigmaGPCM(v, k, modeltype);
+subplot(4,4,j)
+hold('on')
+for i=1:k
+ellipse(zeros(v,1), S(:,:,i),0.95,col(i));
+end
+axis equal
+legend('off')
+title(modeltype)
+end</t>
+  </si>
+  <si>
+    <t>Y=randn(10,4);
+S=GowerIndex(Y);</t>
+  </si>
+  <si>
+    <t>close all
+Y = load('geyser2.txt');
+k = 3;
+% using tkmeans 
+out = tkmeans(Y, k*2, 0.05, 'plots', 1);
+overl_1 = overlapmap(out);
+% using tkmeans for a higher number of components
+out2 = tkmeans(Y, k*4, 0.05, 'plots', 1);
+overl_2 = overlapmap(out2);
+cascade;</t>
+  </si>
+  <si>
+    <t>rng(10,'twister')
+eigenvalues=abs(10*randn(3,4));
+% niini is the column vector containing the sizes of the 4 groups
+niini=[30;40;20;10];
+out=restrdeter(eigenvalues,niini,1.1)
+disp('Input matrix of unrestricted eigenvalues')
+disp(eigenvalues)
+disp('Output matrix of restricted eigenvalues which satisfy determinant constraint')
+disp(out)
+disp('Ratio between largest and smallest determinant')
+disp(max(prod(eigenvalues))/min(prod(eigenvalues)))
+disp('Ratio between largest and smallest restricted determinants')
+disp(max(prod(out))/min(prod(out)))</t>
+  </si>
+  <si>
+    <t>rng(10,'twister')
+eigenvalues=abs(10*randn(3,4));
+% niini is the vector containing the sizes of the 4 groups
+niini=[30;40;20;10];
+out=restreigen(eigenvalues,niini,1.1)
+disp('Input matrix of unrestricted eigenvalues')
+disp(eigenvalues)
+disp('Output matrix of restricted eigenvalues')
+disp(out)
+disp('Ratio between largest and smallest unrestricted eigenvalues')
+disp(max(max(eigenvalues))/min(min(eigenvalues)))
+disp('Ratio between largest and smallest restricted eigenvalues')
+disp(max(max(out))/min(min(out)))</t>
+  </si>
+  <si>
+    <t>rng(10,'twister')
+eigenvalues=abs(10*randn(3,4));
+% niini is the vector containing the sizes of the 4 groups
+niini=[30;40;20;10];
+out=restreigeneasy(eigenvalues,niini,1.1)
+disp('Input matrix of unrestricted eigenvalues')
+disp(eigenvalues)
+disp('Output matrix of restricted eigenvalues')
+disp(out)
+disp('Ratio between largest and smallest unrestricted eigenvalues')
+disp(max(max(eigenvalues))/min(min(eigenvalues)))
+disp('Ratio between largest and smallest restricted eigenvalues')
+disp(max(max(out))/min(min(out)))</t>
+  </si>
+  <si>
+    <t>Y=load('geyser2.txt');
+out=tclust(Y,3,0.1,10000);</t>
+  </si>
+  <si>
+    <t>close all
+Y=load('geyser2.txt');
+% alpha and restriction factor are not specified therefore for alpha
+% vector [0.10 0.05 0] is used while for the restriction factor, value c=12
+% is used
+k=3;
+[out]=tclusteda(Y,k);</t>
+  </si>
+  <si>
+    <t>Y=load('geyser2.txt');
+out=tclustIC(Y,'cleanpool',false,'plots',1,'alpha',0.1);
+% Write out.MIXMIX as MATLAB table
+disp('MIXMIX (BIC)')
+if verLessThan ('matlab','8.2.0');
+VariableNames={'c_1'; 'c_2'; 'c_4'; 'c_8'; 'c_16'; 'c_32'; 'c_64'; 'c_128'};
+disp(VariableNames')
+disp(out.MIXMIX)
+disp('Rows refers to k (number of groups')
+else
+RowNames=cellstr([repmat('k=',length(out.kk),1) num2str(out.kk')]);
+VariableNames=matlab.lang.makeValidName(cellstr([repmat('c=',length(out.cc),1) num2str(out.cc')]));
+disp(array2table(out.MIXMIX,'VariableNames',VariableNames','RowNames',RowNames))
+end
+% Find smallest value inside the table and write the corresponding
+% values of k (number of groups) and c (restriction factor)
+[valmin,indk]=min(out.MIXMIX);
+[minIC,indc]=min(valmin);
+disp(['Smallest value of IC is ' num2str(minIC) ' and takes place for'])
+disp(['k=' num2str(out.kk(indk(indc))) ' and  c=' num2str(out.cc(indc))]);</t>
+  </si>
+  <si>
+    <t>Y=load('geyser2.txt');
+out=tclustIC(Y,'cleanpool',false,'plots',0,'alpha',0.1);
+% Plot first two best solutions using as Information criterion MIXMIX
+disp('Best solutions using MIXMIX')
+[outMIXMIX]=tclustICsol(out,'whichIC','MIXMIX','plots',1,'NumberOfBestSolutions',2);
+disp(outMIXMIX.MIXMIXbs)</t>
+  </si>
+  <si>
+    <t>close all
+Y=load('geyser2.txt');
+out=tkmeans(Y,3,0.03,'plots',1)</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -333,14 +521,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,1353 +548,1353 @@
     <col min="1" max="1" width="17.28515625" customWidth="true"/>
     <col min="2" max="2" width="17.140625" customWidth="true"/>
     <col min="3" max="3" width="9.5703125" customWidth="true"/>
-    <col min="4" max="4" width="10.5703125" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.28515625" customWidth="true"/>
     <col min="6" max="6" width="91.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>11.032752</v>
+        <v>11.680334</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>8.559723</v>
+        <v>8.9052450000000007</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>4.9432790000000004</v>
+        <v>5.2733809999999997</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>5.0981509999999997</v>
+        <v>5.449757</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>2.8551790000000001</v>
+        <v>3.0788690000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>29.997709</v>
+        <v>34.395560000000003</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>9.5630970000000008</v>
+        <v>9.6797409999999999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D9">
-        <v>6.9041449999999998</v>
+        <v>7.068899</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>7.7400289999999998</v>
+        <v>8.7240369999999992</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1.923983</v>
+        <v>2.1119370000000002</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>0.353657</v>
+        <v>0.36370200000000003</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13">
-        <v>0.30227700000000002</v>
+        <v>0.32537199999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14">
-        <v>0.31918600000000003</v>
+        <v>0.336754</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15">
-        <v>0.30901000000000001</v>
+        <v>0.33385599999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D16">
-        <v>0.401196</v>
+        <v>0.41002699999999997</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D17">
-        <v>0.46386899999999998</v>
+        <v>0.47634500000000002</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>36</v>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>3.500553</v>
+        <v>3.502043</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>10.711644</v>
+        <v>11.521948</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>42.104309999999998</v>
+        <v>45.219071</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
+      <c r="F20" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>15.274915999999999</v>
+        <v>16.306460999999999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
+      <c r="F21" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>9.277609</v>
+        <v>9.9738330000000008</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
+      <c r="F22" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D23">
-        <v>0.30875999999999998</v>
+        <v>0.325575</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D24">
-        <v>0.32138699999999998</v>
+        <v>0.34299499999999999</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>38</v>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25">
-        <v>0.28209000000000001</v>
+        <v>0.27909200000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D26">
-        <v>0.279252</v>
+        <v>0.26902399999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
+      <c r="F26" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D27">
-        <v>0.28820499999999999</v>
+        <v>0.27506399999999998</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>38</v>
+      <c r="F27" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D28">
-        <v>0.28641100000000003</v>
+        <v>0.31967400000000001</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
+      <c r="F28" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>0.27890799999999999</v>
+        <v>0.28209499999999998</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>39</v>
+      <c r="F29" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30">
-        <v>0.071830000000000005</v>
+        <v>0.071572999999999998</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>39</v>
+      <c r="F30" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>0.300207</v>
+        <v>0.284715</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
+      <c r="F31" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D32">
-        <v>0.066519999999999996</v>
+        <v>0.070471000000000006</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
+      <c r="F32" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D33">
-        <v>1.150312</v>
+        <v>1.2501329999999999</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>41</v>
+      <c r="F33" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D34">
-        <v>14.800653000000001</v>
+        <v>16.098521000000002</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
+      <c r="F34" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35">
-        <v>0.42814999999999998</v>
+        <v>0.403142</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>41</v>
+      <c r="F35" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D36">
-        <v>9.1058129999999995</v>
+        <v>9.7652029999999996</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>41</v>
+      <c r="F36" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D37">
-        <v>18.492851999999999</v>
+        <v>19.681363000000001</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>41</v>
+      <c r="F37" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D38">
-        <v>5.4795910000000001</v>
+        <v>6.0815760000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>41</v>
+      <c r="F38" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39">
-        <v>6.7147399999999999</v>
+        <v>7.3619659999999998</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>41</v>
+      <c r="F39" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D40">
-        <v>16.510584999999999</v>
+        <v>18.020949999999999</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>41</v>
+      <c r="F40" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D41">
-        <v>5.1404529999999999</v>
+        <v>5.5661459999999998</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>41</v>
+      <c r="F41" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D42">
-        <v>21.699757000000002</v>
+        <v>22.959569999999999</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>41</v>
+      <c r="F42" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D43">
-        <v>41.891308000000002</v>
+        <v>44.184314999999998</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>41</v>
+      <c r="F43" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D44">
-        <v>6.0328799999999996</v>
+        <v>6.7677040000000002</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>41</v>
+      <c r="F44" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D45">
-        <v>4.0857380000000001</v>
+        <v>4.4382349999999997</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>41</v>
+      <c r="F45" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D46">
-        <v>3.901716</v>
+        <v>3.98034</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>42</v>
+      <c r="F46" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D47">
-        <v>10.733238999999999</v>
+        <v>11.159166000000001</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>42</v>
+      <c r="F47" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D48">
-        <v>76.471170000000001</v>
+        <v>81.775771000000006</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>42</v>
+      <c r="F48" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D49">
-        <v>15.942823000000001</v>
+        <v>17.341992000000001</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>42</v>
+      <c r="F49" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D50">
-        <v>19.040475000000001</v>
+        <v>20.360354999999998</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>42</v>
+      <c r="F50" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>45.454569999999997</v>
+        <v>47.231831</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>42</v>
+      <c r="F51" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D52">
-        <v>44.772424000000001</v>
+        <v>46.658138999999998</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>42</v>
+      <c r="F52" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D53">
-        <v>52.359541</v>
+        <v>56.545665</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>42</v>
+      <c r="F53" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D54">
-        <v>17.591602000000002</v>
+        <v>18.288481999999998</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>42</v>
+      <c r="F54" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D55">
-        <v>25.546009000000002</v>
+        <v>27.778655000000001</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>42</v>
+      <c r="F55" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D56">
-        <v>136.89779999999999</v>
+        <v>147.43470199999999</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>42</v>
+      <c r="F56" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D57">
-        <v>34.367641999999996</v>
+        <v>36.790402999999998</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>43</v>
+      <c r="F57" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D58">
-        <v>14.336598</v>
+        <v>15.475942999999999</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>43</v>
+      <c r="F58" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D59">
-        <v>30.542621</v>
+        <v>33.298220999999998</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>44</v>
+      <c r="F59" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D60">
-        <v>27.267142</v>
+        <v>29.519763999999999</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>44</v>
+      <c r="F60" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D61">
-        <v>13.867383999999999</v>
+        <v>14.989535</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>44</v>
+      <c r="F61" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D62">
-        <v>10.427743</v>
+        <v>11.348718999999999</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>44</v>
+      <c r="F62" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D63">
-        <v>1.3965350000000001</v>
+        <v>1.550352</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>45</v>
+      <c r="F63" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D64">
-        <v>1.392387</v>
+        <v>1.5750649999999999</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>45</v>
+      <c r="F64" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D65">
-        <v>2.1142699999999999</v>
+        <v>2.309409</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>45</v>
+      <c r="F65" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D66">
-        <v>1.9957149999999999</v>
+        <v>2.158328</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>45</v>
+      <c r="F66" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D67">
-        <v>1.5088619999999999</v>
+        <v>1.554654</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>45</v>
+      <c r="F67" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
